--- a/xlsx/贝弗里奇报告_intext.xlsx
+++ b/xlsx/贝弗里奇报告_intext.xlsx
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%B4%9D%E5%BC%97%E9%87%8C%E5%A5%87</t>
